--- a/191010_Deuterium_Transfer_Peak_Areas.xlsx
+++ b/191010_Deuterium_Transfer_Peak_Areas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Documents\Parker_research\GCMS_Stuff\191010\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847F0BFF-831B-4F06-9ACE-31F7E155B85C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBC529C-6A32-41F6-A912-5EF43AE361B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5930" yWindow="750" windowWidth="32550" windowHeight="10530" xr2:uid="{0C4FD04D-EEC1-4A1F-94F8-64C84F3860BB}"/>
+    <workbookView xWindow="17710" yWindow="520" windowWidth="18930" windowHeight="20190" xr2:uid="{0C4FD04D-EEC1-4A1F-94F8-64C84F3860BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,7 +460,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
